--- a/System Settings/Settings.xlsx
+++ b/System Settings/Settings.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\TFS\B2BSystem\File\SPs\B2BSPs\System Settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4770CF6E-1747-4899-AFD3-22D3A5D7E93E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5618C85F-0C25-4FE5-89AB-D388E8EAD14B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5570F750-0BAE-490D-AF09-89D3D9846119}"/>
+    <workbookView xWindow="6000" yWindow="3225" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{5570F750-0BAE-490D-AF09-89D3D9846119}"/>
   </bookViews>
   <sheets>
     <sheet name="Local Storage" sheetId="1" r:id="rId1"/>
     <sheet name="Global Scope" sheetId="2" r:id="rId2"/>
+    <sheet name="BuyerDashBoard" sheetId="3" r:id="rId3"/>
+    <sheet name="Seller Dashboard" sheetId="4" r:id="rId4"/>
+    <sheet name="Menu" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
   <si>
     <t>Item</t>
   </si>
@@ -80,13 +83,130 @@
   </si>
   <si>
     <t xml:space="preserve">Get the status of the user logged in. </t>
+  </si>
+  <si>
+    <t>Left Menu</t>
+  </si>
+  <si>
+    <t>Sale</t>
+  </si>
+  <si>
+    <t>Quotation History</t>
+  </si>
+  <si>
+    <t>Order History</t>
+  </si>
+  <si>
+    <t>Return Request History</t>
+  </si>
+  <si>
+    <t>Manage Account</t>
+  </si>
+  <si>
+    <t>Account Settings</t>
+  </si>
+  <si>
+    <t>Premier Membership</t>
+  </si>
+  <si>
+    <t>B2BPoints</t>
+  </si>
+  <si>
+    <t>Notifications</t>
+  </si>
+  <si>
+    <t>Seller Messages</t>
+  </si>
+  <si>
+    <t>Email Notifications</t>
+  </si>
+  <si>
+    <t>Buyer Messages</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Quote Request</t>
+  </si>
+  <si>
+    <t>See all the previous quotes and can edit them if not approved</t>
+  </si>
+  <si>
+    <t>Return an Item</t>
+  </si>
+  <si>
+    <t>Product Arrangement</t>
+  </si>
+  <si>
+    <t>Messaging</t>
+  </si>
+  <si>
+    <t>Messages</t>
+  </si>
+  <si>
+    <t>Send Message</t>
+  </si>
+  <si>
+    <t>To buyer or to system managers</t>
+  </si>
+  <si>
+    <t>Complains</t>
+  </si>
+  <si>
+    <t>File a Complain</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Rate a Supplier</t>
+  </si>
+  <si>
+    <t>View Ratings</t>
+  </si>
+  <si>
+    <t>See all Reviews</t>
+  </si>
+  <si>
+    <t>Reviews can be added just in the places of products or suppliers</t>
+  </si>
+  <si>
+    <t>Ratings can be apply on the spot of products or supplier</t>
+  </si>
+  <si>
+    <t>Seller Messages , System Messages</t>
+  </si>
+  <si>
+    <t>When quote become a order then buyer can use this menu to make changes and other things</t>
+  </si>
+  <si>
+    <t>Shipping Charges</t>
+  </si>
+  <si>
+    <t>By selecting and items buyer can make quotations</t>
+  </si>
+  <si>
+    <t>Compare Products</t>
+  </si>
+  <si>
+    <t>Wishlist</t>
+  </si>
+  <si>
+    <t>See Complain History</t>
+  </si>
+  <si>
+    <t>FeedBack</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +218,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -129,9 +257,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC6C95AF-84A9-400E-96C6-B94411CE775F}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,4 +690,306 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56FEDE50-C80E-49C2-8BF3-457E58C8FC19}">
+  <dimension ref="A1:A13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F6A0745-3D3F-41E4-93C9-E7B8DFC46202}">
+  <dimension ref="A3:A14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF6375EB-98C2-41C3-BFC3-213A09202C2D}">
+  <dimension ref="B2:C26"/>
+  <sheetViews>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="106.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>